--- a/biology/Zoologie/Histriasaurus/Histriasaurus.xlsx
+++ b/biology/Zoologie/Histriasaurus/Histriasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Histriasaurus boscarollii
-Histriasaurus (« lézard d'Istrie ») est un genre éteint de dinosaures sauropodes diplodocoïdes ayant vécu au Crétacé inférieur (Hauterivien à Barrémien), soit il y a environ entre 133 et 125 Ma (millions d'années)[1].
-Une seule espèce est rattachée au genre, Histriasaurus boscarollii, décrite par F. M. Dalla Vecchia en 1998[1].
+Histriasaurus (« lézard d'Istrie ») est un genre éteint de dinosaures sauropodes diplodocoïdes ayant vécu au Crétacé inférieur (Hauterivien à Barrémien), soit il y a environ entre 133 et 125 Ma (millions d'années).
+Une seule espèce est rattachée au genre, Histriasaurus boscarollii, décrite par F. M. Dalla Vecchia en 1998.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fossile holotype, référencé WN V-6, a été découvert près de la ville de Bale sur la péninsule d'Istrie en Croatie, dans des calcaires lacustres de l'Hauterivien à Barrémien.
 </t>
@@ -544,11 +558,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Histriasaurus est un sauropode diplodocoïde, proche, mais un peu plus primitif, que Rebbachisaurus. Les différentes analyses phylogénétiques réalisées le placent comme l'un des Rebbachisauridae les plus basaux[2],[3].
-Cladogramme
-Le cladogramme suivant des Rebbachisauridae établi par Luis Carballido et ses collègues en 2012[4], montre la position très basale d'Histriasaurus parmi les Rebbachisauridae :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Histriasaurus est un sauropode diplodocoïde, proche, mais un peu plus primitif, que Rebbachisaurus. Les différentes analyses phylogénétiques réalisées le placent comme l'un des Rebbachisauridae les plus basaux,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Histriasaurus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histriasaurus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant des Rebbachisauridae établi par Luis Carballido et ses collègues en 2012, montre la position très basale d'Histriasaurus parmi les Rebbachisauridae :
 </t>
         </is>
       </c>
